--- a/va_facility_data_2025-02-20/Winner VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Winner%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Winner VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Winner%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R33ea1798156144f0aee6ca6156025f2d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0a5217155f674340b47989d24a2d998f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1a6cc4af6c52477e95d9d29e8fd40a3f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R5859f8a2df454acb90d9d764afdf9bfe"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4b8ce598381243c7bc038acabfb69d7d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc81754d2c07f4d899e32b5b36f263cc6"/>
   </x:sheets>
 </x:workbook>
 </file>
